--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 06-24.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 06-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\BCSXBH2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF98A9-B7AD-4C1B-87B1-9C15FA5801FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C258900-017E-452C-9066-5CB1194E2D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo cáo SX" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>VNSH01</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Lô 3-2022</t>
   </si>
   <si>
-    <t>HUB V1.3</t>
-  </si>
-  <si>
     <t>Test lại cảm biến nhiệt độ</t>
   </si>
   <si>
@@ -203,10 +200,13 @@
     <t>Test đọc thẻ và dây cáp kết nối</t>
   </si>
   <si>
-    <t>Nâng cấp FW, test lại</t>
-  </si>
-  <si>
     <t>BÁO CÁO THỜI GIAN LÀM VIỆC THÁNG 06/2024</t>
+  </si>
+  <si>
+    <t>HUB VACC_H2</t>
+  </si>
+  <si>
+    <t>Nạp FW, hàn dây kết nối</t>
   </si>
 </sst>
 </file>
@@ -594,42 +594,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,10 +609,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +1038,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1069,12 +1069,14 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -1084,16 +1086,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -1103,40 +1105,42 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>51</v>
+      <c r="B6" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>360</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="2">
         <v>341</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
@@ -1156,12 +1160,14 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>179</v>
+      </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1173,12 +1179,14 @@
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1190,21 +1198,23 @@
       <c r="B10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>43</v>
+      </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="2">
@@ -1214,44 +1224,46 @@
         <v>35</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="2">
         <v>1500</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="2">
+        <v>216</v>
+      </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="43"/>
+      <c r="A14" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="50"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1262,19 +1274,19 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="19"/>
@@ -1282,8 +1294,8 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
@@ -1296,7 +1308,7 @@
       <c r="F16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="15"/>
@@ -1322,7 +1334,7 @@
         <v>1856</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1522,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1538,10 +1550,10 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14">
         <f>SUM(D17:D25)</f>
@@ -1568,17 +1580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1589,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1608,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -1736,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -1768,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
@@ -1815,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1840,9 @@
       <c r="A2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="72" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
